--- a/biology/Zoologie/Droméocerque_brun/Droméocerque_brun.xlsx
+++ b/biology/Zoologie/Droméocerque_brun/Droméocerque_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drom%C3%A9ocerque_brun</t>
+          <t>Droméocerque_brun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bradypterus brunneus
 Le Droméocerque brun-vert (Bradypterus brunneus, anciennement Dromaeocercus brunneus) est une espèce de passereaux placée dans la famille des Locustellidae. Elle était auparavant placée dans le genre monotypique Dromaeocercus. Mais les travaux d'Alström et al. (2011) ont permis de la classer dans le genre Bradypterus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drom%C3%A9ocerque_brun</t>
+          <t>Droméocerque_brun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique à Madagascar.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Drom%C3%A9ocerque_brun</t>
+          <t>Droméocerque_brun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les montagnes humides subtropicales ou tropicales.
 </t>
